--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG3/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB94D33-56DC-C94E-B843-C723A29B307F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE34A493-991A-4741-A6DD-F526D7C0613C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3120" windowWidth="14400" windowHeight="9660" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
+    <workbookView xWindow="5760" yWindow="4920" windowWidth="17760" windowHeight="10040" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="finished_goods" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">machine!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">machine!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">wip!$A$1:$E$64</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="67">
   <si>
     <t>part</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>dic_1 dic_2</t>
+  </si>
+  <si>
+    <t>block_wedge</t>
+  </si>
+  <si>
+    <t>blo_1 blo_2</t>
+  </si>
+  <si>
+    <t>blo_1</t>
+  </si>
+  <si>
+    <t>blo_2</t>
   </si>
 </sst>
 </file>
@@ -690,7 +702,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,7 +723,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +739,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1215,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,8 +1223,7 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
@@ -1268,18 +1279,20 @@
         <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -1298,18 +1311,20 @@
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -1328,18 +1343,20 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -1358,18 +1375,20 @@
         <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -1388,18 +1407,20 @@
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -1535,19 +1556,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50925204-EE27-B44B-B7F0-3D273AA056D3}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12.83203125" customWidth="1"/>
+    <col min="2" max="10" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
@@ -1564,19 +1585,22 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1591,19 +1615,22 @@
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1619,20 +1646,21 @@
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1646,16 +1674,17 @@
       <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1666,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29FF471-7A8D-844E-84D1-B770CEBC695C}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,11 +1747,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="21">
-        <f t="shared" ref="E2:E9" si="0">VLOOKUP(D2,L:N,2,FALSE)</f>
+        <f t="shared" ref="E2:E12" si="0">VLOOKUP(D2,L:N,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">
-        <f t="shared" ref="F2:F9" si="1">VLOOKUP(D2,L:N,3,FALSE)</f>
+        <f t="shared" ref="F2:F12" si="1">VLOOKUP(D2,L:N,3,FALSE)</f>
         <v>0.99930555555555556</v>
       </c>
       <c r="L2" s="17">
@@ -1931,6 +1960,72 @@
         <v>0.25</v>
       </c>
       <c r="F9" s="21">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="21">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -1942,20 +2037,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A37A5E0-AFA4-F045-B6D5-93CDEB012231}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
@@ -1969,25 +2066,28 @@
         <v>47</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1995,29 +2095,32 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H2" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11.7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2025,29 +2128,32 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14.3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2055,29 +2161,32 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2085,29 +2194,32 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="1">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11.7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2115,149 +2227,156 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.2</v>
+      </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10.5</v>
-      </c>
+        <v>15.4</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>11.6</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="F8" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="G8" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>15</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10.5</v>
-      </c>
+        <v>5.3</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J10" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="K10" s="1">
         <v>1</v>
       </c>
     </row>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG3/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE34A493-991A-4741-A6DD-F526D7C0613C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8E540E-736C-5643-827F-A07511580F6B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="4920" windowWidth="17760" windowHeight="10040" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="10">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="10">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="10">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D2" s="1">
         <v>1000</v>
@@ -871,7 +871,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C9" ca="1" si="0">TODAY()</f>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D3" s="1">
         <v>1000</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -919,7 +919,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
@@ -944,7 +944,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -968,7 +968,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -991,7 +991,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43377</v>
+        <v>43379</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG3/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8E540E-736C-5643-827F-A07511580F6B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F8203-E66D-304B-A645-F90657E9828F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4920" windowWidth="17760" windowHeight="10040" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
+    <workbookView xWindow="7840" yWindow="4660" windowWidth="17760" windowHeight="10040" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="68">
   <si>
     <t>part</t>
   </si>
@@ -238,16 +238,20 @@
   </si>
   <si>
     <t>blo_2</t>
+  </si>
+  <si>
+    <t>work_hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +264,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -332,10 +343,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -374,8 +386,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -702,7 +716,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +769,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="10">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +777,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="10">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +801,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="10">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +862,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D2" s="1">
         <v>1000</v>
@@ -871,7 +885,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C9" ca="1" si="0">TODAY()</f>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D3" s="1">
         <v>1000</v>
@@ -894,7 +908,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -919,7 +933,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
@@ -944,7 +958,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -968,7 +982,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -991,7 +1005,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1016,7 +1030,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43379</v>
+        <v>43382</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1698,7 +1712,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1729,6 +1743,9 @@
       <c r="F1" s="20" t="s">
         <v>61</v>
       </c>
+      <c r="G1" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="L1" s="22"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
@@ -1754,6 +1771,9 @@
         <f t="shared" ref="F2:F12" si="1">VLOOKUP(D2,L:N,3,FALSE)</f>
         <v>0.99930555555555556</v>
       </c>
+      <c r="G2" s="24">
+        <v>24</v>
+      </c>
       <c r="L2" s="17">
         <v>1</v>
       </c>
@@ -1785,6 +1805,9 @@
         <f t="shared" si="1"/>
         <v>0.99930555555555556</v>
       </c>
+      <c r="G3" s="24">
+        <v>24</v>
+      </c>
       <c r="L3" s="17">
         <v>2</v>
       </c>
@@ -1816,6 +1839,9 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
+      <c r="G4" s="24">
+        <v>18</v>
+      </c>
       <c r="L4" s="17">
         <v>3</v>
       </c>
@@ -1847,6 +1873,9 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
+      <c r="G5" s="24">
+        <v>18</v>
+      </c>
       <c r="J5" s="19"/>
       <c r="L5" s="17">
         <v>4</v>
@@ -1879,6 +1908,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="G6" s="24">
+        <v>12</v>
+      </c>
       <c r="L6" s="17">
         <v>5</v>
       </c>
@@ -1910,6 +1942,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="G7" s="24">
+        <v>12</v>
+      </c>
       <c r="L7" s="17">
         <v>6</v>
       </c>
@@ -1941,6 +1976,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="G8" s="24">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1963,6 +2001,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="G9" s="24">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1985,6 +2026,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="G10" s="24">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2007,6 +2051,9 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="G11" s="24">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2028,6 +2075,9 @@
       <c r="F12" s="21">
         <f t="shared" si="1"/>
         <v>0.75</v>
+      </c>
+      <c r="G12" s="24">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F8203-E66D-304B-A645-F90657E9828F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D9E59-12B6-0242-B178-5FDA1AD656A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7840" yWindow="4660" windowWidth="17760" windowHeight="10040" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
   </bookViews>
@@ -753,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D2" s="1">
         <v>1000</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C9" ca="1" si="0">TODAY()</f>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D3" s="1">
         <v>1000</v>
@@ -908,7 +908,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2439,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF01CEA-1C4A-E44B-A070-FD9F210341F5}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D9E59-12B6-0242-B178-5FDA1AD656A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808AD8A-027A-E64A-BB9D-2CA38C4C67EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="4660" windowWidth="17760" windowHeight="10040" xr2:uid="{CA00F4A2-42BA-FF4B-A33E-1C1F5A5699E6}"/>
+    <workbookView xWindow="2560" yWindow="1620" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="criteria" sheetId="2" r:id="rId3"/>
     <sheet name="sequence" sheetId="3" r:id="rId4"/>
     <sheet name="machine" sheetId="6" r:id="rId5"/>
-    <sheet name="machine_criteria" sheetId="10" r:id="rId6"/>
-    <sheet name="processing_time" sheetId="4" r:id="rId7"/>
-    <sheet name="wip" sheetId="5" r:id="rId8"/>
-    <sheet name="finished_goods" sheetId="9" r:id="rId9"/>
+    <sheet name="processing_time" sheetId="4" r:id="rId6"/>
+    <sheet name="machine_criteria" sheetId="10" r:id="rId7"/>
+    <sheet name="machine_lotsize" sheetId="11" r:id="rId8"/>
+    <sheet name="wip" sheetId="5" r:id="rId9"/>
+    <sheet name="finished_goods" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">machine!$A$1:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">wip!$A$1:$E$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">machine!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">machine_lotsize!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">wip!$A$1:$E$64</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="72">
   <si>
     <t>part</t>
   </si>
@@ -183,21 +185,12 @@
     <t>wafer_dicing</t>
   </si>
   <si>
-    <t>rob_dicing</t>
-  </si>
-  <si>
     <t>final_dicing</t>
   </si>
   <si>
     <t>dice_making</t>
   </si>
   <si>
-    <t>ins_1 ins_2</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
     <t>dic_2</t>
   </si>
   <si>
@@ -225,33 +218,53 @@
     <t>day_finish</t>
   </si>
   <si>
+    <t>block_wedge</t>
+  </si>
+  <si>
+    <t>blo_1</t>
+  </si>
+  <si>
+    <t>work_hour</t>
+  </si>
+  <si>
+    <t>clean_1</t>
+  </si>
+  <si>
+    <t>wedge_polishing</t>
+  </si>
+  <si>
+    <t>clean_2</t>
+  </si>
+  <si>
+    <t>clean_3</t>
+  </si>
+  <si>
+    <t>rob_slicing</t>
+  </si>
+  <si>
+    <t>cle_1</t>
+  </si>
+  <si>
+    <t>ins_1 ins_2 ins_3</t>
+  </si>
+  <si>
     <t>dic_1 dic_2</t>
   </si>
   <si>
-    <t>block_wedge</t>
-  </si>
-  <si>
-    <t>blo_1 blo_2</t>
-  </si>
-  <si>
-    <t>blo_1</t>
-  </si>
-  <si>
-    <t>blo_2</t>
-  </si>
-  <si>
-    <t>work_hour</t>
+    <t>pos_1</t>
+  </si>
+  <si>
+    <t>ins_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,8 +285,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,7 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -368,15 +408,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -387,12 +426,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -712,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA078D1-2942-4644-9FFD-0AA39B2E7D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -753,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,6 +870,81 @@
       <c r="B10" s="10">
         <v>0.3</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -810,21 +952,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D427CB-4375-844F-B298-4575B521091A}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" customWidth="1"/>
+    <col min="4" max="8" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -844,54 +984,54 @@
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="33">
         <v>3000</v>
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3600</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2123</v>
       </c>
       <c r="C3" s="12">
-        <f t="shared" ref="C3:C9" ca="1" si="0">TODAY()</f>
-        <v>43383</v>
+        <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
+        <v>43389</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -901,142 +1041,135 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3590</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3000</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="33">
         <v>3000</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D5" s="1">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2560</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="33">
+        <v>3000</v>
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <f>6858+1369</f>
-        <v>8227</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="33">
+        <v>2000</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>344</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="33">
+        <v>4000</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2041</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="33">
+        <v>1000</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43383</v>
+        <v>43389</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1044,24 +1177,187 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="33">
+        <v>6000</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D10" s="1">
+        <v>140</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="33">
+        <v>4000</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33">
+        <v>6000</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA9509-1D3C-014C-A322-89AFB3FDFFA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A8" activeCellId="4" sqref="A2 A5 A6 A7 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,16 +1385,14 @@
         <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>2002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1215</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1107,20 +1401,18 @@
         <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>1746</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <v>1216</v>
+        <v>1508</v>
       </c>
       <c r="F3" s="2">
         <f>E3*4</f>
-        <v>4864</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,20 +1420,18 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
-        <v>2380</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>1746</v>
+        <v>2002</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4" si="0">E4*4</f>
-        <v>6984</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1149,16 +1439,14 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>2380</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>1740</v>
+        <v>2450</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1167,16 +1455,14 @@
         <v>18</v>
       </c>
       <c r="B6" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>2058</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>1320</v>
+        <v>2128</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1185,16 +1471,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>2002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1215</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1203,16 +1487,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
-        <v>1932</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>1175</v>
+        <v>2002</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1225,340 +1507,429 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872A604C-44E5-EE49-9978-DFEFBE2C9210}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="C1" s="14">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="14">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="14">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="14">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="14">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="14">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="K1" s="14">
+        <v>9</v>
+      </c>
+      <c r="L1" s="14">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14">
+        <v>11</v>
+      </c>
+      <c r="N1" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:F6">
@@ -1569,136 +1940,174 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50925204-EE27-B44B-B7F0-3D273AA056D3}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.83203125" customWidth="1"/>
+    <col min="2" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1708,726 +2117,802 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29FF471-7A8D-844E-84D1-B770CEBC695C}">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="23" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
+      <c r="I1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="21">
-        <f t="shared" ref="E2:E12" si="0">VLOOKUP(D2,L:N,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
-        <f t="shared" ref="F2:F12" si="1">VLOOKUP(D2,L:N,3,FALSE)</f>
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="G2" s="24">
-        <v>24</v>
-      </c>
-      <c r="L2" s="17">
-        <v>1</v>
-      </c>
-      <c r="M2" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N2" s="21">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P8" si="0">SUM(C2:O2)</f>
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <f t="shared" si="1"/>
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="G3" s="24">
-        <v>24</v>
-      </c>
-      <c r="L3" s="17">
-        <v>2</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="N3" s="21">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+        <v>1.8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <f>SUM(C9:O9)</f>
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <f>SUM(C10:O10)</f>
         <v>37</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="21">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G4" s="24">
-        <v>18</v>
-      </c>
-      <c r="L4" s="17">
-        <v>3</v>
-      </c>
-      <c r="M4" s="21">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="N4" s="21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G5" s="24">
-        <v>18</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="L5" s="17">
-        <v>4</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G6" s="24">
-        <v>12</v>
-      </c>
-      <c r="L6" s="17">
-        <v>5</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="21">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="24">
-        <v>12</v>
-      </c>
-      <c r="L7" s="17">
-        <v>6</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="N7" s="21">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G10" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="21">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="24">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="50" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A37A5E0-AFA4-F045-B6D5-93CDEB012231}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="22" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20">
+        <f t="shared" ref="C2" si="0">VLOOKUP(B2,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="20">
+        <f t="shared" ref="D2" si="1">VLOOKUP(B2,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="23">
+        <v>12</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" ref="C3" si="2">VLOOKUP(B3,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3" si="3">VLOOKUP(B3,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="23">
+        <v>12</v>
+      </c>
+      <c r="J3" s="17">
+        <v>2</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" ref="C4:C5" si="4">VLOOKUP(B4,J:L,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:D5" si="5">VLOOKUP(B4,J:L,3,FALSE)</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E4" s="23">
+        <v>24</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E5" s="23">
+        <v>24</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="17">
+        <v>4</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="20">
+        <f>VLOOKUP(B6,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="23">
+        <v>12</v>
+      </c>
+      <c r="J6" s="17">
+        <v>5</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
+        <f>VLOOKUP(B7,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="20">
+        <f>VLOOKUP(B7,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="23">
+        <v>12</v>
+      </c>
+      <c r="J7" s="17">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J2" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="K7" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="20">
+        <f>VLOOKUP(B8,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="20">
+        <f>VLOOKUP(B9,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="20">
+        <f>VLOOKUP(B10,J:L,3,FALSE)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E10" s="23">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="J4" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J5" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J6" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:C13" si="6">VLOOKUP(B11,J:L,2,FALSE)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" ref="D11:D13" si="7">VLOOKUP(B11,J:L,3,FALSE)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="23">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>23.1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="7"/>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E12" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="7"/>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E13" s="23">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2436,14 +2921,481 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF01CEA-1C4A-E44B-A070-FD9F210341F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="24">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="14">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1</v>
+      </c>
+      <c r="D21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="25">
+        <v>20</v>
+      </c>
+      <c r="D25" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
+      <c r="D30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -2464,1160 +3416,1105 @@
         <v>23</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>19019988</v>
+        <v>19020037</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
-        <v>2450</v>
+        <v>5280</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>IF(OR(B2=$B$26,B2=$B$25),"seq_2","seq_1")</f>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>19019379</v>
+        <v>19020036</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5">
-        <v>2002</v>
+        <v>5280</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E60" si="0">IF(OR(B3=$B$26,B3=$B$25),"seq_2","seq_1")</f>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>19019381</v>
+        <v>19004702</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
-        <v>2002</v>
+        <v>2200</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>56</v>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>19017212</v>
+        <v>19004703</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
-        <v>1426</v>
+        <v>294</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>19019654</v>
+        <v>19007670</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
-        <v>2450</v>
+        <v>4860</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>19019656</v>
+        <v>19015558</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>2128</v>
+        <v>6960</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>19017457</v>
+        <v>19015559</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
-        <v>1891</v>
+        <v>6960</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>19018242</v>
+        <v>19017212</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
-        <v>2136</v>
+        <v>1426</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>19018243</v>
+        <v>19022177</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5">
-        <v>2139</v>
+        <v>4860</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>19018606</v>
+        <v>19022181</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>2166</v>
+        <v>4860</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>19018607</v>
+        <v>19022934</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <v>1830</v>
+        <v>2002</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>19018605</v>
+        <v>19019654</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5">
-        <v>2286</v>
+        <v>2255</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>19005847</v>
+        <v>19019656</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
-        <v>2000</v>
+        <v>1717</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>19019380</v>
+        <v>19019989</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5">
-        <v>1001</v>
+        <v>2282</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>19017228</v>
+        <v>19019655</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5">
-        <v>2094</v>
+        <v>2072</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>19017229</v>
+        <v>19019988</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="5">
-        <v>2239</v>
+        <v>2217</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>19017231</v>
+        <v>19022179</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5">
-        <v>1890</v>
+        <v>4860</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>19017230</v>
+        <v>19005847</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>1958</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>19019116</v>
+        <v>19022178</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5">
-        <v>1426</v>
+        <v>4860</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>19019120</v>
+        <v>19022180</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5">
-        <v>1426</v>
+        <v>4860</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>19019123</v>
+        <v>19019115</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>19019124</v>
+        <v>19019117</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>19019125</v>
+        <v>19019116</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>19019129</v>
+        <v>19019120</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>19019130</v>
+        <v>19019123</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5">
-        <v>1906</v>
+        <v>1905.9999994</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>19019474</v>
+        <v>19019124</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="5">
-        <v>1426</v>
+        <v>1905.9999994</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>19019476</v>
+        <v>19019125</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5">
-        <v>1426</v>
+        <v>1905.9999994</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>19019477</v>
+        <v>19019474</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>19017202</v>
+        <v>19019476</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>19017203</v>
+        <v>19019477</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>19017201</v>
+        <v>19023260</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="5">
-        <v>1906</v>
+        <v>4860</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>19017204</v>
+        <v>19023261</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5">
-        <v>1906</v>
+        <v>4860</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>19017206</v>
+        <v>19019118</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="5">
-        <v>1906</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>19019115</v>
+        <v>19019119</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>19019117</v>
+        <v>19019121</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>19019118</v>
+        <v>19019122</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>19019119</v>
+        <v>19019473</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>19019121</v>
+        <v>19019475</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>19019122</v>
+        <v>19019478</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="5">
-        <v>1426</v>
+        <v>1426.0000006</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>19019126</v>
+        <v>19023257</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="5">
-        <v>1906</v>
+        <v>4860</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>19019127</v>
+        <v>19023258</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="5">
-        <v>1906</v>
+        <v>4860</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>57</v>
+      <c r="E42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>19019128</v>
+        <v>19023259</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="5">
-        <v>1906</v>
+        <v>4860</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>19019131</v>
+        <v>19022932</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="5">
-        <v>1906</v>
+        <v>1957</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>19019473</v>
+        <v>19022933</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" s="5">
-        <v>1426</v>
+        <v>1931</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>19019475</v>
+        <v>19022935</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" s="5">
-        <v>1426</v>
+        <v>1918</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>19019478</v>
+        <v>19022764</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" s="5">
-        <v>1426</v>
+        <v>2002</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>19017208</v>
+        <v>19022765</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="5">
-        <v>1906</v>
+        <v>2002</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>19017210</v>
+        <v>19023251</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" s="5">
-        <v>1426</v>
+        <v>2001.9999996500001</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>19017205</v>
+        <v>19023255</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C50" s="5">
-        <v>1906</v>
+        <v>2128.0000005000002</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>19017207</v>
+        <v>19023256</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C51" s="5">
-        <v>1906</v>
+        <v>2128.0000005000002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>19017209</v>
+        <v>19023252</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C52" s="5">
-        <v>1906</v>
+        <v>2001.9999996500001</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>19017211</v>
+        <v>19023253</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" s="5">
-        <v>1426</v>
+        <v>2001.9999996500001</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>19017214</v>
+        <v>19023254</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" s="5">
-        <v>1426</v>
+        <v>2001.9999996500001</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>19017216</v>
+        <v>19021864</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" s="5">
-        <v>1426</v>
+        <v>2000</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
-        <v>19017218</v>
+        <v>19021867</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" s="5">
-        <v>1426</v>
+        <v>1919</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>19017213</v>
+        <v>19021865</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57" s="5">
-        <v>1426</v>
+        <v>1796</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
-        <v>19017215</v>
+        <v>19021866</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" s="5">
-        <v>1426</v>
+        <v>1958</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>19017217</v>
+        <v>19010768</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5">
-        <v>1426</v>
+        <v>2356</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>19017219</v>
+        <v>19008448</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="5">
-        <v>1426</v>
+        <v>4864</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="E60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>seq_2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>19019655</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="5">
-        <v>2450</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>19019990</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>19019991</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>19019989</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="5">
-        <v>2450</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E64" xr:uid="{D85F538E-380C-514F-9D29-F3E19FAFD5F8}"/>
+  <autoFilter ref="A1:E64" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745AE118-73F6-4942-8D72-9A7DD976E748}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808AD8A-027A-E64A-BB9D-2CA38C4C67EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E262A-8050-7843-ADDE-A977919B0005}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="1620" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E262A-8050-7843-ADDE-A977919B0005}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE8004-FC7D-CF49-B3A7-6BE12B9046B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1620" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -783,7 +783,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -844,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE8004-FC7D-CF49-B3A7-6BE12B9046B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E4E00-22B4-C247-A8CC-04E6506AF87D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E4E00-22B4-C247-A8CC-04E6506AF87D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D638811-6E5F-5140-B414-2045E0EBB0E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43390</v>
+        <v>43392</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D638811-6E5F-5140-B414-2045E0EBB0E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A7AB4-26E4-B746-A909-71FD4A1B3C38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +956,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43392</v>
+        <v>43394</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A7AB4-26E4-B746-A909-71FD4A1B3C38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB695C1-4681-8449-8761-59EF2FEFC602}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="78">
   <si>
     <t>part</t>
   </si>
@@ -98,9 +98,6 @@
     <t>LN13013-W1</t>
   </si>
   <si>
-    <t>polish_lotsize</t>
-  </si>
-  <si>
     <t>dicing_lotsize</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>ROAM</t>
   </si>
   <si>
-    <t>IOAM</t>
-  </si>
-  <si>
     <t>OSSM</t>
   </si>
   <si>
@@ -255,6 +249,30 @@
   </si>
   <si>
     <t>ins_3</t>
+  </si>
+  <si>
+    <t>fabrication_part</t>
+  </si>
+  <si>
+    <t>LN123-BL</t>
+  </si>
+  <si>
+    <t>LN118-BL</t>
+  </si>
+  <si>
+    <t>LN100-BL</t>
+  </si>
+  <si>
+    <t>LN125-BL</t>
+  </si>
+  <si>
+    <t>B50124</t>
+  </si>
+  <si>
+    <t>ITSM</t>
+  </si>
+  <si>
+    <t>OSSM_rate</t>
   </si>
 </sst>
 </file>
@@ -780,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,15 +811,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10">
         <v>20</v>
@@ -809,7 +827,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10">
         <v>5</v>
@@ -817,15 +835,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10">
         <v>0.5</v>
@@ -833,7 +851,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="10">
         <v>0.5</v>
@@ -841,7 +859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10">
         <v>0.5</v>
@@ -849,7 +867,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="10">
         <v>0.5</v>
@@ -857,18 +875,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="10">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B10" s="10">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -975,22 +1001,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,7 +1028,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1025,7 +1051,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1048,7 +1074,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1071,7 +1097,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1094,7 +1120,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1117,7 +1143,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1140,7 +1166,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1163,7 +1189,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1186,7 +1212,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1209,7 +1235,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1232,7 +1258,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1255,7 +1281,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1278,7 +1304,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1301,7 +1327,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1324,7 +1350,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43394</v>
+        <v>43396</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
@@ -1349,14 +1375,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="4" sqref="A2 A5 A6 A7 A8"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1371,13 +1397,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1390,7 +1416,9 @@
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" s="1">
         <v>2002</v>
       </c>
@@ -1406,7 +1434,9 @@
       <c r="C3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E3" s="1">
         <v>1508</v>
       </c>
@@ -1425,7 +1455,9 @@
       <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="1">
         <v>2002</v>
       </c>
@@ -1444,7 +1476,9 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E5" s="1">
         <v>2450</v>
       </c>
@@ -1460,7 +1494,9 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E6" s="1">
         <v>2128</v>
       </c>
@@ -1476,7 +1512,9 @@
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" s="1">
         <v>2002</v>
       </c>
@@ -1492,7 +1530,9 @@
       <c r="C8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="1">
         <v>2002</v>
       </c>
@@ -1521,7 +1561,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1565,7 +1605,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>13</v>
@@ -1574,31 +1614,31 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>7</v>
@@ -1609,7 +1649,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>9</v>
@@ -1618,31 +1658,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>7</v>
@@ -1653,7 +1693,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>18</v>
@@ -1662,31 +1702,31 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>7</v>
@@ -1697,7 +1737,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
@@ -1706,31 +1746,31 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>7</v>
@@ -1741,7 +1781,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>14</v>
@@ -1750,31 +1790,31 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>7</v>
@@ -1785,7 +1825,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>12</v>
@@ -1797,19 +1837,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
@@ -1823,7 +1863,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
@@ -1835,16 +1875,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -1859,7 +1899,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>11</v>
@@ -1871,19 +1911,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
@@ -1897,7 +1937,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>11</v>
@@ -1909,16 +1949,16 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -1955,40 +1995,40 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1999,116 +2039,116 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -2144,34 +2184,34 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>7</v>
@@ -2182,7 +2222,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -2231,7 +2271,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2280,7 +2320,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -2329,7 +2369,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -2378,7 +2418,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -2427,7 +2467,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -2470,7 +2510,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -2509,7 +2549,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -2552,7 +2592,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -2614,19 +2654,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="14"/>
@@ -2634,7 +2674,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -2662,7 +2702,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -2690,7 +2730,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -2718,7 +2758,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -2747,7 +2787,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2775,7 +2815,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2803,7 +2843,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2822,7 +2862,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2841,7 +2881,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -2860,7 +2900,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -2879,7 +2919,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -2898,7 +2938,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
@@ -2935,24 +2975,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="24">
         <v>1</v>
@@ -2963,10 +3003,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="24">
         <v>2</v>
@@ -2977,10 +3017,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -2991,10 +3031,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
@@ -3005,10 +3045,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="26">
         <v>1</v>
@@ -3019,10 +3059,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="26">
         <v>1</v>
@@ -3033,10 +3073,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="26">
         <v>1</v>
@@ -3047,10 +3087,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="24">
         <v>1</v>
@@ -3061,10 +3101,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="24">
         <v>1</v>
@@ -3075,10 +3115,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="24">
         <v>1</v>
@@ -3089,10 +3129,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="24">
         <v>2</v>
@@ -3103,10 +3143,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="24">
         <v>20</v>
@@ -3117,10 +3157,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="14">
         <v>1</v>
@@ -3131,10 +3171,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="14">
         <v>20</v>
@@ -3145,10 +3185,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="30">
         <v>1</v>
@@ -3159,10 +3199,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
@@ -3173,10 +3213,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="14">
         <v>4</v>
@@ -3187,10 +3227,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="14">
         <v>2</v>
@@ -3201,10 +3241,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="27">
         <v>1</v>
@@ -3215,10 +3255,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="27">
         <v>1</v>
@@ -3229,10 +3269,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="27">
         <v>1</v>
@@ -3243,10 +3283,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
@@ -3257,10 +3297,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
@@ -3271,10 +3311,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="25">
         <v>20</v>
@@ -3285,10 +3325,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="31">
         <v>1</v>
@@ -3299,10 +3339,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="31">
         <v>1</v>
@@ -3313,10 +3353,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="25">
         <v>2</v>
@@ -3327,10 +3367,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="28">
         <v>1</v>
@@ -3341,10 +3381,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="28">
         <v>1</v>
@@ -3355,10 +3395,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="28">
         <v>1</v>
@@ -3369,10 +3409,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
@@ -3404,19 +3444,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,7 +3470,7 @@
         <v>5280</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>IF(OR(B2=$B$26,B2=$B$25),"seq_2","seq_1")</f>
@@ -3448,7 +3488,7 @@
         <v>5280</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E60" si="0">IF(OR(B3=$B$26,B3=$B$25),"seq_2","seq_1")</f>
@@ -3466,7 +3506,7 @@
         <v>2200</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3484,7 +3524,7 @@
         <v>294</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3502,7 +3542,7 @@
         <v>4860</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3520,7 +3560,7 @@
         <v>6960</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3538,7 +3578,7 @@
         <v>6960</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3574,7 +3614,7 @@
         <v>4860</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3592,7 +3632,7 @@
         <v>4860</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3610,7 +3650,7 @@
         <v>2002</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3628,7 +3668,7 @@
         <v>2255</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3646,7 +3686,7 @@
         <v>1717</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3664,7 +3704,7 @@
         <v>2282</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3682,7 +3722,7 @@
         <v>2072</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3700,7 +3740,7 @@
         <v>2217</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3718,7 +3758,7 @@
         <v>4860</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3736,7 +3776,7 @@
         <v>2000</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3754,7 +3794,7 @@
         <v>4860</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3772,7 +3812,7 @@
         <v>4860</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4276,7 +4316,7 @@
         <v>2001.9999996500001</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4294,7 +4334,7 @@
         <v>2128.0000005000002</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4312,7 +4352,7 @@
         <v>2128.0000005000002</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4330,7 +4370,7 @@
         <v>2001.9999996500001</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4348,7 +4388,7 @@
         <v>2001.9999996500001</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4366,7 +4406,7 @@
         <v>2001.9999996500001</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4474,7 +4514,7 @@
         <v>4864</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4512,8 +4552,8 @@
   </sheetData>
   <autoFilter ref="A1:E64" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB695C1-4681-8449-8761-59EF2FEFC602}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2038BE64-28DE-D045-9029-EB56BA8BFBC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="80">
   <si>
     <t>part</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>OSSM_rate</t>
+  </si>
+  <si>
+    <t>IJMM</t>
+  </si>
+  <si>
+    <t>IJMM_rate</t>
   </si>
 </sst>
 </file>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -895,6 +901,22 @@
       </c>
       <c r="B11" s="10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1050,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1051,7 +1073,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1074,7 +1096,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1097,7 +1119,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1120,7 +1142,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1143,7 +1165,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1166,7 +1188,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1189,7 +1211,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1212,7 +1234,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1235,7 +1257,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1258,7 +1280,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1281,7 +1303,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1304,7 +1326,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1327,7 +1349,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1350,7 +1372,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
@@ -1550,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2038BE64-28DE-D045-9029-EB56BA8BFBC9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CACFE4-A2E2-A149-ACD6-5AF00D221CAA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,7 +916,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CACFE4-A2E2-A149-ACD6-5AF00D221CAA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C92B27-686F-6B4A-8B77-62DEDD1D4B48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,7 +908,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C92B27-686F-6B4A-8B77-62DEDD1D4B48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48A975-E5D5-4C42-BE84-B1F75BAD3AC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="10">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/eclipse-workspace/LNWG4/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/github-repositories/LNWG/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56471E16-B6BB-9B49-B4FE-F1E7B431BFD1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F3722-8B08-7648-B625-045265BDC8A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="81">
   <si>
     <t>part</t>
   </si>
@@ -272,13 +272,16 @@
     <t>ITSM</t>
   </si>
   <si>
-    <t>OSSM_rate</t>
-  </si>
-  <si>
     <t>IJMM</t>
   </si>
   <si>
-    <t>IJMM_rate</t>
+    <t>OSSM_size</t>
+  </si>
+  <si>
+    <t>IJMM_size</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -806,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -876,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="10">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -884,15 +887,15 @@
         <v>31</v>
       </c>
       <c r="B9" s="10">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,15 +903,15 @@
         <v>76</v>
       </c>
       <c r="B11" s="10">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +919,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1053,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1073,7 +1076,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1096,7 +1099,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1119,7 +1122,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1142,7 +1145,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1165,7 +1168,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1211,7 +1214,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1234,7 +1237,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1280,7 +1283,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1303,7 +1306,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1326,7 +1329,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1349,7 +1352,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43399</v>
+        <v>43412</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
@@ -1397,7 +1400,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2006,7 +2009,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2179,7 +2182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2658,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,11 +2986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2995,7 +2998,7 @@
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
@@ -3008,8 +3011,11 @@
       <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>51</v>
       </c>
@@ -3017,13 +3023,16 @@
         <v>58</v>
       </c>
       <c r="C2" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
@@ -3034,10 +3043,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>51</v>
       </c>
@@ -3050,8 +3062,11 @@
       <c r="D4" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
@@ -3064,8 +3079,11 @@
       <c r="D5" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
@@ -3078,8 +3096,11 @@
       <c r="D6" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3092,8 +3113,11 @@
       <c r="D7" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>51</v>
       </c>
@@ -3106,8 +3130,11 @@
       <c r="D8" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>51</v>
       </c>
@@ -3120,8 +3147,11 @@
       <c r="D9" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>51</v>
       </c>
@@ -3134,8 +3164,11 @@
       <c r="D10" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>51</v>
       </c>
@@ -3148,8 +3181,11 @@
       <c r="D11" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>51</v>
       </c>
@@ -3162,8 +3198,11 @@
       <c r="D12" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>51</v>
       </c>
@@ -3171,13 +3210,16 @@
         <v>34</v>
       </c>
       <c r="C13" s="24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>52</v>
       </c>
@@ -3190,8 +3232,11 @@
       <c r="D14" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>52</v>
       </c>
@@ -3199,13 +3244,16 @@
         <v>34</v>
       </c>
       <c r="C15" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3218,8 +3266,11 @@
       <c r="D16" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>52</v>
       </c>
@@ -3232,8 +3283,11 @@
       <c r="D17" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>52</v>
       </c>
@@ -3246,8 +3300,11 @@
       <c r="D18" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -3258,10 +3315,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -3274,8 +3334,11 @@
       <c r="D20" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -3288,8 +3351,11 @@
       <c r="D21" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>52</v>
       </c>
@@ -3302,8 +3368,11 @@
       <c r="D22" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
@@ -3316,8 +3385,11 @@
       <c r="D23" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>53</v>
       </c>
@@ -3330,8 +3402,11 @@
       <c r="D24" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>53</v>
       </c>
@@ -3339,13 +3414,16 @@
         <v>34</v>
       </c>
       <c r="C25" s="25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D25" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>53</v>
       </c>
@@ -3358,8 +3436,11 @@
       <c r="D26" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>53</v>
       </c>
@@ -3372,8 +3453,11 @@
       <c r="D27" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
@@ -3384,10 +3468,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>53</v>
       </c>
@@ -3400,8 +3487,11 @@
       <c r="D29" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>53</v>
       </c>
@@ -3414,8 +3504,11 @@
       <c r="D30" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
@@ -3428,8 +3521,11 @@
       <c r="D31" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
@@ -3442,9 +3538,12 @@
       <c r="D32" s="25">
         <v>1</v>
       </c>
+      <c r="E32" s="25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/github-repositories/LNWG/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F3722-8B08-7648-B625-045265BDC8A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4D52B5-8A13-F043-B5B2-BF75D649C76F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D9" s="1">
         <v>140</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D10" s="1">
         <v>140</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43412</v>
+        <v>43414</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
@@ -2989,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3026,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="24">
         <v>4</v>
@@ -3057,10 +3057,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="29">
         <v>1</v>
@@ -3074,10 +3074,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="29">
         <v>1</v>
@@ -3193,10 +3193,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="24">
         <v>2</v>
@@ -3261,10 +3261,10 @@
         <v>35</v>
       </c>
       <c r="C16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="30">
         <v>1</v>
@@ -3278,10 +3278,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="30">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="14">
         <v>4</v>
@@ -3431,10 +3431,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="31">
         <v>1</v>
@@ -3448,10 +3448,10 @@
         <v>48</v>
       </c>
       <c r="C27" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="31">
         <v>1</v>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/github-repositories/LNWG/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4D52B5-8A13-F043-B5B2-BF75D649C76F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42938381-E191-8049-8076-7E4F121B819C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="80">
   <si>
     <t>part</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>IJMM_size</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -809,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1050,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43414</v>
+        <v>43428</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1075,8 +1072,8 @@
         <v>2123</v>
       </c>
       <c r="C3" s="12">
-        <f t="shared" ref="C3:C16" ca="1" si="0">TODAY()</f>
-        <v>43414</v>
+        <f t="shared" ref="C3:C8" ca="1" si="0">TODAY()</f>
+        <v>43428</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1099,7 +1096,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
+        <v>43428</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1122,7 +1119,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
+        <v>43428</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1145,7 +1142,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43414</v>
+        <v>43428</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1168,7 +1165,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
+        <v>43428</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1191,7 +1188,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
+        <v>43428</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -1204,190 +1201,6 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="33">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D9" s="1">
-        <v>140</v>
-      </c>
-      <c r="E9" s="1">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="33">
-        <v>6000</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D10" s="1">
-        <v>140</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="33">
-        <v>3000</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="33">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="33">
-        <v>4000</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="33">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="33">
-        <v>6000</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>43414</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2987,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2998,7 +2811,7 @@
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
@@ -3011,11 +2824,8 @@
       <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>51</v>
       </c>
@@ -3028,11 +2838,8 @@
       <c r="D2" s="24">
         <v>4</v>
       </c>
-      <c r="E2" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
@@ -3045,11 +2852,8 @@
       <c r="D3" s="24">
         <v>2</v>
       </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>51</v>
       </c>
@@ -3062,11 +2866,8 @@
       <c r="D4" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
@@ -3079,11 +2880,8 @@
       <c r="D5" s="29">
         <v>2</v>
       </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
@@ -3096,11 +2894,8 @@
       <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3113,11 +2908,8 @@
       <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>51</v>
       </c>
@@ -3130,11 +2922,8 @@
       <c r="D8" s="26">
         <v>1</v>
       </c>
-      <c r="E8" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>51</v>
       </c>
@@ -3147,11 +2936,8 @@
       <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>51</v>
       </c>
@@ -3164,11 +2950,8 @@
       <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>51</v>
       </c>
@@ -3181,11 +2964,8 @@
       <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>51</v>
       </c>
@@ -3198,11 +2978,8 @@
       <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="E12" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>51</v>
       </c>
@@ -3215,11 +2992,8 @@
       <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="E13" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>52</v>
       </c>
@@ -3232,11 +3006,8 @@
       <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>52</v>
       </c>
@@ -3249,11 +3020,8 @@
       <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3266,11 +3034,8 @@
       <c r="D16" s="30">
         <v>2</v>
       </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>52</v>
       </c>
@@ -3283,11 +3048,8 @@
       <c r="D17" s="30">
         <v>2</v>
       </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>52</v>
       </c>
@@ -3300,11 +3062,8 @@
       <c r="D18" s="14">
         <v>4</v>
       </c>
-      <c r="E18" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -3317,11 +3076,8 @@
       <c r="D19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -3334,11 +3090,8 @@
       <c r="D20" s="27">
         <v>1</v>
       </c>
-      <c r="E20" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -3351,11 +3104,8 @@
       <c r="D21" s="27">
         <v>1</v>
       </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>52</v>
       </c>
@@ -3368,11 +3118,8 @@
       <c r="D22" s="27">
         <v>1</v>
       </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
@@ -3385,11 +3132,8 @@
       <c r="D23" s="14">
         <v>1</v>
       </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>53</v>
       </c>
@@ -3402,11 +3146,8 @@
       <c r="D24" s="25">
         <v>1</v>
       </c>
-      <c r="E24" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>53</v>
       </c>
@@ -3419,11 +3160,8 @@
       <c r="D25" s="25">
         <v>1</v>
       </c>
-      <c r="E25" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>53</v>
       </c>
@@ -3436,11 +3174,8 @@
       <c r="D26" s="31">
         <v>2</v>
       </c>
-      <c r="E26" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>53</v>
       </c>
@@ -3453,11 +3188,8 @@
       <c r="D27" s="31">
         <v>2</v>
       </c>
-      <c r="E27" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
@@ -3470,11 +3202,8 @@
       <c r="D28" s="25">
         <v>2</v>
       </c>
-      <c r="E28" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>53</v>
       </c>
@@ -3487,11 +3216,8 @@
       <c r="D29" s="28">
         <v>1</v>
       </c>
-      <c r="E29" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>53</v>
       </c>
@@ -3504,11 +3230,8 @@
       <c r="D30" s="28">
         <v>1</v>
       </c>
-      <c r="E30" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>53</v>
       </c>
@@ -3521,11 +3244,8 @@
       <c r="D31" s="28">
         <v>1</v>
       </c>
-      <c r="E31" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
@@ -3536,9 +3256,6 @@
         <v>1</v>
       </c>
       <c r="D32" s="25">
-        <v>1</v>
-      </c>
-      <c r="E32" s="25">
         <v>1</v>
       </c>
     </row>

--- a/src/data/input.xlsx
+++ b/src/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaibnd/github-repositories/LNWG/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42938381-E191-8049-8076-7E4F121B819C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26700BE-F2DC-0F4F-B2BF-51949A53D812}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1600" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1680" windowWidth="21560" windowHeight="13460" tabRatio="872" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="7" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">TODAY()</f>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D2" s="1">
         <v>2100</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" ca="1" si="0">TODAY()</f>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D3" s="1">
         <v>2100</v>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D4" s="1">
         <v>2100</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D5" s="1">
         <v>140</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C6" s="12">
         <f ca="1">TODAY()</f>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D6" s="1">
         <v>140</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D7" s="1">
         <v>140</v>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43428</v>
+        <v>43432</v>
       </c>
       <c r="D8" s="1">
         <v>140</v>
@@ -2802,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3158,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
